--- a/Config/Excel/Tree.xlsx
+++ b/Config/Excel/Tree.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51512E2E-2A98-4DE1-95D4-020FB917A79D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFBB11B-ACFA-482B-8A39-50BE8CE8D55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4C94D608-84B0-4569-B66C-F9C79C7917D7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -94,6 +94,9 @@
   <si>
     <t>Count</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CreatePosOffset</t>
   </si>
 </sst>
 </file>
@@ -161,15 +164,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{498A0703-A58F-4372-B2FA-7D21B3DD6EA1}" name="テーブル1" displayName="テーブル1" ref="A1:L4" totalsRowShown="0">
-  <autoFilter ref="A1:L4" xr:uid="{D88F1FBF-9EBC-486F-AE7B-B679FBF22B6D}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{498A0703-A58F-4372-B2FA-7D21B3DD6EA1}" name="テーブル1" displayName="テーブル1" ref="A1:M4" totalsRowShown="0">
+  <autoFilter ref="A1:M4" xr:uid="{D88F1FBF-9EBC-486F-AE7B-B679FBF22B6D}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{9E142ECD-E784-46D4-971F-2792DCD92398}" name="ID"/>
     <tableColumn id="3" xr3:uid="{1E56BFE8-23C9-4DBB-A62D-BD88E2667F75}" name="ResourceName"/>
     <tableColumn id="4" xr3:uid="{018B20B7-60A2-4605-B903-C1E35822B953}" name="PosX"/>
     <tableColumn id="5" xr3:uid="{CA413BB2-5715-4917-A114-13DE30116070}" name="PosZ"/>
     <tableColumn id="12" xr3:uid="{F5C8D774-9A71-4D8B-AE37-51FAA20C4D98}" name="Angle"/>
     <tableColumn id="11" xr3:uid="{3FD0B01E-9FBE-4407-927C-6EF5039F073F}" name="OffsetY"/>
+    <tableColumn id="13" xr3:uid="{E2DF8115-E5FE-4FAC-8D4A-08247514A2BF}" name="CreatePosOffset"/>
     <tableColumn id="6" xr3:uid="{1EBEAD8F-CBC9-4104-B598-625D304736CA}" name="Scale"/>
     <tableColumn id="10" xr3:uid="{90792E3A-27BD-4AB3-80D3-2F04537255C5}" name="Break"/>
     <tableColumn id="7" xr3:uid="{90DCAFD1-78B8-4EB7-A9A6-207A6875A129}" name="HP"/>
@@ -478,20 +482,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742F1379-1BC2-4D96-A4DE-12D1A1CF8E40}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="28.625" customWidth="1"/>
-    <col min="10" max="10" width="6.875" customWidth="1"/>
-    <col min="11" max="11" width="7.875" customWidth="1"/>
+    <col min="11" max="11" width="6.875" customWidth="1"/>
+    <col min="12" max="12" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,25 +515,28 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -543,19 +550,22 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="M2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -566,19 +576,22 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="M3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -589,15 +602,18 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="M4">
         <v>3</v>
       </c>
     </row>
